--- a/excel/officecost.xlsx
+++ b/excel/officecost.xlsx
@@ -1727,10 +1727,10 @@
         <v>6</v>
       </c>
       <c r="C2" s="7">
-        <v>14456763</v>
+        <v>2080511</v>
       </c>
       <c r="D2" s="7">
-        <v>1025383</v>
+        <v>0</v>
       </c>
       <c r="E2" s="8" t="e">
         <f>D2/C2</f>
@@ -1757,10 +1757,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>45422031</v>
+        <v>205990</v>
       </c>
       <c r="D4" s="7">
-        <v>4029162</v>
+        <v>0</v>
       </c>
       <c r="E4" s="8" t="e">
         <f t="shared" si="0"/>
@@ -1772,10 +1772,10 @@
         <v>11</v>
       </c>
       <c r="C5" s="7">
-        <v>16635078</v>
+        <v>70309</v>
       </c>
       <c r="D5" s="7">
-        <v>332985</v>
+        <v>0</v>
       </c>
       <c r="E5" s="8" t="e">
         <f t="shared" si="0"/>
@@ -1787,10 +1787,10 @@
         <v>12</v>
       </c>
       <c r="C6" s="7">
-        <v>19740731</v>
+        <v>759148</v>
       </c>
       <c r="D6" s="7">
-        <v>685559</v>
+        <v>0</v>
       </c>
       <c r="E6" s="8" t="e">
         <f t="shared" si="0"/>
@@ -1802,10 +1802,10 @@
         <v>13</v>
       </c>
       <c r="C7" s="7">
-        <v>12777631</v>
+        <v>266400</v>
       </c>
       <c r="D7" s="7">
-        <v>1054742</v>
+        <v>0</v>
       </c>
       <c r="E7" s="8" t="e">
         <f t="shared" si="0"/>
@@ -1817,10 +1817,10 @@
         <v>14</v>
       </c>
       <c r="C8" s="7">
-        <v>5964685</v>
+        <v>4713426</v>
       </c>
       <c r="D8" s="7">
-        <v>77582</v>
+        <v>0</v>
       </c>
       <c r="E8" s="8" t="e">
         <f t="shared" si="0"/>
@@ -1849,10 +1849,10 @@
         <v>17</v>
       </c>
       <c r="C10" s="7">
-        <v>24657968</v>
+        <v>2194856</v>
       </c>
       <c r="D10" s="7">
-        <v>1516176</v>
+        <v>0</v>
       </c>
       <c r="E10" s="8" t="e">
         <f t="shared" si="0"/>
@@ -1864,10 +1864,10 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>15997496</v>
+        <v>201386</v>
       </c>
       <c r="D11" s="7">
-        <v>490505</v>
+        <v>0</v>
       </c>
       <c r="E11" s="8" t="e">
         <f t="shared" si="0"/>
@@ -1879,10 +1879,10 @@
         <v>19</v>
       </c>
       <c r="C12" s="7">
-        <v>17344175</v>
+        <v>2629800</v>
       </c>
       <c r="D12" s="7">
-        <v>749514</v>
+        <v>0</v>
       </c>
       <c r="E12" s="8" t="e">
         <f t="shared" si="0"/>
@@ -1911,10 +1911,10 @@
         <v>22</v>
       </c>
       <c r="C14" s="7">
-        <v>11866689</v>
+        <v>2754806</v>
       </c>
       <c r="D14" s="7">
-        <v>395204</v>
+        <v>0</v>
       </c>
       <c r="E14" s="8" t="e">
         <f t="shared" si="0"/>
@@ -1925,12 +1925,8 @@
       <c r="B15" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="7">
-        <v>3333915</v>
-      </c>
-      <c r="D15" s="7">
-        <v>47142</v>
-      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
       <c r="E15" s="8" t="e">
         <f t="shared" si="0"/>
       </c>
@@ -1940,12 +1936,8 @@
       <c r="B16" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="7">
-        <v>8603213</v>
-      </c>
-      <c r="D16" s="7">
-        <v>434391</v>
-      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
       <c r="E16" s="8" t="e">
         <f t="shared" si="0"/>
       </c>
@@ -1973,10 +1965,10 @@
         <v>27</v>
       </c>
       <c r="C18" s="7">
-        <v>31636763</v>
+        <v>9730773</v>
       </c>
       <c r="D18" s="7">
-        <v>2023438</v>
+        <v>0</v>
       </c>
       <c r="E18" s="8" t="e">
         <f t="shared" si="0"/>
@@ -1988,10 +1980,10 @@
         <v>28</v>
       </c>
       <c r="C19" s="7">
-        <v>14481282</v>
+        <v>569495</v>
       </c>
       <c r="D19" s="7">
-        <v>677216</v>
+        <v>0</v>
       </c>
       <c r="E19" s="8" t="e">
         <f t="shared" si="0"/>
@@ -2003,10 +1995,10 @@
         <v>29</v>
       </c>
       <c r="C20" s="7">
-        <v>15380715</v>
+        <v>831585</v>
       </c>
       <c r="D20" s="7">
-        <v>500550</v>
+        <v>0</v>
       </c>
       <c r="E20" s="8" t="e">
         <f t="shared" si="0"/>
@@ -2018,10 +2010,10 @@
         <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>6875313</v>
+        <v>26578</v>
       </c>
       <c r="D21" s="7">
-        <v>241817</v>
+        <v>0</v>
       </c>
       <c r="E21" s="8" t="e">
         <f t="shared" si="0"/>
@@ -2050,10 +2042,10 @@
         <v>33</v>
       </c>
       <c r="C23" s="7">
-        <v>25838012</v>
+        <v>303698</v>
       </c>
       <c r="D23" s="7">
-        <v>870417</v>
+        <v>0</v>
       </c>
       <c r="E23" s="8" t="e">
         <f t="shared" si="0"/>
@@ -2093,10 +2085,10 @@
         <v>37</v>
       </c>
       <c r="C26" s="7">
-        <v>26820925</v>
+        <v>1208391</v>
       </c>
       <c r="D26" s="7">
-        <v>1650251</v>
+        <v>0</v>
       </c>
       <c r="E26" s="8" t="e">
         <f t="shared" si="0"/>
@@ -2108,10 +2100,10 @@
         <v>38</v>
       </c>
       <c r="C27" s="7">
-        <v>8631051</v>
+        <v>3372234</v>
       </c>
       <c r="D27" s="7">
-        <v>198414</v>
+        <v>0</v>
       </c>
       <c r="E27" s="8" t="e">
         <f t="shared" si="0"/>
@@ -2122,12 +2114,8 @@
       <c r="B28" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="7">
-        <v>18593397</v>
-      </c>
-      <c r="D28" s="7">
-        <v>882726</v>
-      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
       <c r="E28" s="8" t="e">
         <f t="shared" si="0"/>
       </c>
@@ -2155,10 +2143,10 @@
         <v>42</v>
       </c>
       <c r="C30" s="7">
-        <v>21789785</v>
+        <v>4546938</v>
       </c>
       <c r="D30" s="7">
-        <v>835897</v>
+        <v>0</v>
       </c>
       <c r="E30" s="8" t="e">
         <f t="shared" si="0"/>
@@ -2172,10 +2160,10 @@
         <v>44</v>
       </c>
       <c r="C31" s="7">
-        <v>15396152</v>
+        <v>1409957</v>
       </c>
       <c r="D31" s="7">
-        <v>640661</v>
+        <v>0</v>
       </c>
       <c r="E31" s="8" t="e">
         <f t="shared" si="0"/>
@@ -2189,10 +2177,10 @@
         <v>46</v>
       </c>
       <c r="C32" s="7">
-        <v>10004410</v>
+        <v>18755</v>
       </c>
       <c r="D32" s="7">
-        <v>269003</v>
+        <v>0</v>
       </c>
       <c r="E32" s="8" t="e">
         <f t="shared" si="0"/>
@@ -2206,10 +2194,10 @@
         <v>48</v>
       </c>
       <c r="C33" s="7">
-        <v>25907562</v>
+        <v>2128155</v>
       </c>
       <c r="D33" s="7">
-        <v>573590</v>
+        <v>0</v>
       </c>
       <c r="E33" s="8" t="e">
         <f t="shared" si="0"/>
@@ -2222,12 +2210,8 @@
       <c r="B34" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="7">
-        <v>5008533</v>
-      </c>
-      <c r="D34" s="7">
-        <v>163699</v>
-      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
       <c r="E34" s="8" t="e">
         <f t="shared" si="0"/>
       </c>
@@ -2240,10 +2224,10 @@
         <v>52</v>
       </c>
       <c r="C35" s="7">
-        <v>16168107</v>
+        <v>5336085</v>
       </c>
       <c r="D35" s="7">
-        <v>1176694</v>
+        <v>0</v>
       </c>
       <c r="E35" s="8" t="e">
         <f t="shared" si="0"/>
@@ -2274,10 +2258,10 @@
         <v>56</v>
       </c>
       <c r="C37" s="7">
-        <v>30234811</v>
+        <v>295546</v>
       </c>
       <c r="D37" s="7">
-        <v>950499</v>
+        <v>0</v>
       </c>
       <c r="E37" s="8" t="e">
         <f t="shared" si="0"/>
@@ -2289,10 +2273,10 @@
         <v>57</v>
       </c>
       <c r="C38" s="7">
-        <v>10858249</v>
+        <v>454648</v>
       </c>
       <c r="D38" s="7">
-        <v>265360</v>
+        <v>0</v>
       </c>
       <c r="E38" s="8" t="e">
         <f t="shared" si="0"/>
@@ -2304,10 +2288,10 @@
         <v>58</v>
       </c>
       <c r="C39" s="7">
-        <v>20952713</v>
+        <v>205199</v>
       </c>
       <c r="D39" s="7">
-        <v>613732</v>
+        <v>0</v>
       </c>
       <c r="E39" s="8" t="e">
         <f t="shared" si="0"/>
@@ -2330,10 +2314,10 @@
         <v>60</v>
       </c>
       <c r="C41" s="7">
-        <v>14575838</v>
+        <v>98865</v>
       </c>
       <c r="D41" s="7">
-        <v>540563</v>
+        <v>0</v>
       </c>
       <c r="E41" s="8" t="e">
         <f t="shared" si="0"/>
@@ -2344,12 +2328,8 @@
       <c r="B42" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C42" s="7">
-        <v>5888564</v>
-      </c>
-      <c r="D42" s="7">
-        <v>119268</v>
-      </c>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
       <c r="E42" s="8" t="e">
         <f t="shared" si="0"/>
       </c>
@@ -2360,10 +2340,10 @@
         <v>62</v>
       </c>
       <c r="C43" s="7">
-        <v>14839393</v>
+        <v>519</v>
       </c>
       <c r="D43" s="7">
-        <v>331853</v>
+        <v>0</v>
       </c>
       <c r="E43" s="8" t="e">
         <f t="shared" si="0"/>
@@ -2374,12 +2354,8 @@
       <c r="B44" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C44" s="7">
-        <v>3918305</v>
-      </c>
-      <c r="D44" s="7">
-        <v>98643</v>
-      </c>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
       <c r="E44" s="8" t="e">
         <f t="shared" si="0"/>
       </c>
@@ -2407,10 +2383,10 @@
         <v>66</v>
       </c>
       <c r="C46" s="7">
-        <v>19231182</v>
+        <v>557939</v>
       </c>
       <c r="D46" s="7">
-        <v>555989</v>
+        <v>0</v>
       </c>
       <c r="E46" s="8" t="e">
         <f t="shared" si="0"/>
@@ -2422,10 +2398,10 @@
         <v>67</v>
       </c>
       <c r="C47" s="7">
-        <v>22667700</v>
+        <v>2055374</v>
       </c>
       <c r="D47" s="7">
-        <v>973516</v>
+        <v>0</v>
       </c>
       <c r="E47" s="8" t="e">
         <f t="shared" si="0"/>
